--- a/politica-promo.xlsx
+++ b/politica-promo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>PRODUTO</t>
   </si>
@@ -38,25 +38,7 @@
     <t>PREMIUM ML</t>
   </si>
   <si>
-    <t>FONTE 60A</t>
-  </si>
-  <si>
     <t>MARKETPLACE</t>
-  </si>
-  <si>
-    <t>FONTE 120A</t>
-  </si>
-  <si>
-    <t>FONTE 200A</t>
-  </si>
-  <si>
-    <t>FONTE 90 BOB</t>
-  </si>
-  <si>
-    <t>FONTE 120 BOB</t>
-  </si>
-  <si>
-    <t>FONTE 200 BOB</t>
   </si>
 </sst>
 </file>
@@ -64,8 +46,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -171,7 +153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -474,7 +456,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,185 +494,77 @@
         <v>0.05</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I1" s="2">
         <v>0.05</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4">
-        <v>434.58940000000001</v>
-      </c>
-      <c r="C2" s="5">
-        <v>373.74688400000002</v>
-      </c>
-      <c r="D2" s="4">
-        <v>466.38940000000002</v>
-      </c>
-      <c r="E2" s="5">
-        <v>401.09488400000004</v>
-      </c>
-      <c r="F2" s="4">
-        <v>498.18940000000003</v>
-      </c>
-      <c r="G2" s="5">
-        <v>428.44288400000005</v>
-      </c>
-      <c r="H2" s="4">
-        <v>466.38940000000002</v>
-      </c>
-      <c r="I2" s="5">
-        <v>401.09488400000004</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4">
-        <v>635.98940000000005</v>
-      </c>
-      <c r="C3" s="5">
-        <v>546.95088400000009</v>
-      </c>
-      <c r="D3" s="4">
-        <v>667.7894</v>
-      </c>
-      <c r="E3" s="5">
-        <v>574.29888400000004</v>
-      </c>
-      <c r="F3" s="4">
-        <v>710.18940000000009</v>
-      </c>
-      <c r="G3" s="5">
-        <v>610.7628840000001</v>
-      </c>
-      <c r="H3" s="4">
-        <v>667.7894</v>
-      </c>
-      <c r="I3" s="5">
-        <v>574.29888400000004</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4">
-        <v>816.18940000000009</v>
-      </c>
-      <c r="C4" s="5">
-        <v>701.92288400000007</v>
-      </c>
-      <c r="D4" s="4">
-        <v>847.98940000000005</v>
-      </c>
-      <c r="E4" s="5">
-        <v>729.27088400000002</v>
-      </c>
-      <c r="F4" s="4">
-        <v>890.38940000000002</v>
-      </c>
-      <c r="G4" s="5">
-        <v>765.73488399999997</v>
-      </c>
-      <c r="H4" s="4">
-        <v>847.98940000000005</v>
-      </c>
-      <c r="I4" s="5">
-        <v>729.27088400000002</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4">
-        <v>413.38940000000002</v>
-      </c>
-      <c r="C5" s="5">
-        <v>355.514884</v>
-      </c>
-      <c r="D5" s="4">
-        <v>445.18940000000003</v>
-      </c>
-      <c r="E5" s="5">
-        <v>382.86288400000001</v>
-      </c>
-      <c r="F5" s="4">
-        <v>466.38940000000002</v>
-      </c>
-      <c r="G5" s="5">
-        <v>401.09488400000004</v>
-      </c>
-      <c r="H5" s="4">
-        <v>445.18940000000003</v>
-      </c>
-      <c r="I5" s="5">
-        <v>382.86288400000001</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4">
-        <v>493.94940000000003</v>
-      </c>
-      <c r="C6" s="5">
-        <v>424.79648400000002</v>
-      </c>
-      <c r="D6" s="4">
-        <v>525.74940000000004</v>
-      </c>
-      <c r="E6" s="5">
-        <v>452.14448400000003</v>
-      </c>
-      <c r="F6" s="4">
-        <v>568.14940000000001</v>
-      </c>
-      <c r="G6" s="5">
-        <v>488.60848400000003</v>
-      </c>
-      <c r="H6" s="4">
-        <v>525.74940000000004</v>
-      </c>
-      <c r="I6" s="5">
-        <v>452.14448400000003</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4">
-        <v>625.38940000000002</v>
-      </c>
-      <c r="C7" s="5">
-        <v>537.83488399999999</v>
-      </c>
-      <c r="D7" s="4">
-        <v>657.18940000000009</v>
-      </c>
-      <c r="E7" s="5">
-        <v>565.18288400000006</v>
-      </c>
-      <c r="F7" s="4">
-        <v>731.38940000000002</v>
-      </c>
-      <c r="G7" s="5">
-        <v>628.99488399999996</v>
-      </c>
-      <c r="H7" s="4">
-        <v>657.18940000000009</v>
-      </c>
-      <c r="I7" s="5">
-        <v>565.18288400000006</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
